--- a/Descargas/R15_Juzgado De Letras Y Garantia De Alto Hospicio_Familia_Ingresos Causas Por Materia_2018-Julio.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Alto Hospicio_Familia_Ingresos Causas Por Materia_2018-Julio.xlsx
@@ -200,7 +200,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
+    <col min="1" max="1" width="52.650000000000006" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -227,27 +227,27 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">Alimentos</t>
+          <t xml:space="preserve">Adopcion</t>
         </is>
       </c>
       <c r="B3" s="65">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Alimentos Aumento</t>
+          <t xml:space="preserve">Alimentos</t>
         </is>
       </c>
       <c r="B4" s="65">
-        <v>3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">Alimentos, Aumento</t>
+          <t xml:space="preserve">Alimentos Aumento</t>
         </is>
       </c>
       <c r="B5" s="65">
@@ -257,141 +257,141 @@
     <row r="6">
       <c t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">Alimentos, Cesacion</t>
+          <t xml:space="preserve">Alimentos, Aumento</t>
         </is>
       </c>
       <c r="B6" s="65">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">Alimentos, Otros</t>
+          <t xml:space="preserve">Alimentos, Cesacion</t>
         </is>
       </c>
       <c r="B7" s="65">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">Alimentos, Rebaja</t>
+          <t xml:space="preserve">Alimentos, Otros</t>
         </is>
       </c>
       <c r="B8" s="65">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">Autorizacion Salida Del Pais</t>
+          <t xml:space="preserve">Alimentos, Rebaja</t>
         </is>
       </c>
       <c r="B9" s="65">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">Autorizaciones</t>
+          <t xml:space="preserve">Autorizacion Salida Del Pais</t>
         </is>
       </c>
       <c r="B10" s="65">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">Convivencia, Notificacion Cese</t>
+          <t xml:space="preserve">Autorizaciones</t>
         </is>
       </c>
       <c r="B11" s="65">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño</t>
+          <t xml:space="preserve">Compensacion Economica</t>
         </is>
       </c>
       <c r="B12" s="65">
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño, Declaracion</t>
+          <t xml:space="preserve">Convivencia, Notificacion Cese</t>
         </is>
       </c>
       <c r="B13" s="65">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño, Modificacion</t>
+          <t xml:space="preserve">Cuidado Personal Del Niño</t>
         </is>
       </c>
       <c r="B14" s="65">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">Declaracion De Bienes Familiares</t>
+          <t xml:space="preserve">Cuidado Personal Del Niño, Declaracion</t>
         </is>
       </c>
       <c r="B15" s="65">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">Divorcio De Comun Acuerdo</t>
+          <t xml:space="preserve">Cuidado Personal Del Niño, Modificacion</t>
         </is>
       </c>
       <c r="B16" s="65">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">Divorcio Por Cese De Convivencia</t>
+          <t xml:space="preserve">Divorcio De Comun Acuerdo</t>
         </is>
       </c>
       <c r="B17" s="65">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">Divorcio Por Culpa</t>
+          <t xml:space="preserve">Divorcio Por Cese De Convivencia</t>
         </is>
       </c>
       <c r="B18" s="65">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">Entrega Menor Y/O Especies Del Menor/Costo De Crianza Y Educacion Tasados Por El Juez (Art. 239 Cc)</t>
+          <t xml:space="preserve">Guardador Menores De Edad, Nombramiento</t>
         </is>
       </c>
       <c r="B19" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="B20" s="65">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -421,7 +421,7 @@
         </is>
       </c>
       <c r="B22" s="65">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="B23" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B24" s="65">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B25" s="65">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="B26" s="65">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -471,37 +471,27 @@
         </is>
       </c>
       <c r="B27" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c t="inlineStr" r="A28">
         <is>
-          <t xml:space="preserve">Relación Directa Y Regular Suspensión</t>
+          <t xml:space="preserve">Violencia Intrafamiliar</t>
         </is>
       </c>
       <c r="B28" s="65">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c t="inlineStr" r="A29">
         <is>
-          <t xml:space="preserve">Violencia Intrafamiliar</t>
+          <t xml:space="preserve">Vulneración De Derechos</t>
         </is>
       </c>
       <c r="B29" s="65">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30">
-      <c t="inlineStr" r="A30">
-        <is>
-          <t xml:space="preserve">Vulneración De Derechos</t>
-        </is>
-      </c>
-      <c r="B30" s="65">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
